--- a/MCA4-DataMining/dataSet/EPMDataset/Data/intermediate_grades.xlsx
+++ b/MCA4-DataMining/dataSet/EPMDataset/Data/intermediate_grades.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mehrnoosh\Desktop\EPM Dataset\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mbhar\Desktop\MCA\MCA4\MCA4-DataMining\dataSet\EPMDataset\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="10848"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="Intermediate grades" sheetId="1" r:id="rId1"/>
@@ -399,18 +399,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F116"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="5" width="9.44140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.44140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="5" width="9.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.42578125" style="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -430,7 +430,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="8">
         <v>1</v>
       </c>
@@ -450,7 +450,7 @@
         <v>2.25</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
         <v>2</v>
       </c>
@@ -470,7 +470,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="8">
         <v>3</v>
       </c>
@@ -490,7 +490,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="8">
         <v>4</v>
       </c>
@@ -510,7 +510,7 @@
         <v>2.75</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="8">
         <v>5</v>
       </c>
@@ -530,7 +530,7 @@
         <v>2.75</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="8">
         <v>6</v>
       </c>
@@ -550,7 +550,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="8">
         <v>7</v>
       </c>
@@ -570,7 +570,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="8">
         <v>8</v>
       </c>
@@ -590,7 +590,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="8">
         <v>9</v>
       </c>
@@ -610,7 +610,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="8">
         <v>10</v>
       </c>
@@ -630,7 +630,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="8">
         <v>11</v>
       </c>
@@ -650,7 +650,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="8">
         <v>12</v>
       </c>
@@ -670,7 +670,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="8">
         <v>13</v>
       </c>
@@ -690,7 +690,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="8">
         <v>14</v>
       </c>
@@ -710,7 +710,7 @@
         <v>2.75</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="8">
         <v>15</v>
       </c>
@@ -730,7 +730,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="8">
         <v>16</v>
       </c>
@@ -750,7 +750,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="8">
         <v>17</v>
       </c>
@@ -770,7 +770,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="8">
         <v>18</v>
       </c>
@@ -790,7 +790,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="8">
         <v>19</v>
       </c>
@@ -810,7 +810,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="8">
         <v>20</v>
       </c>
@@ -830,7 +830,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="8">
         <v>21</v>
       </c>
@@ -850,7 +850,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="8">
         <v>22</v>
       </c>
@@ -870,7 +870,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="8">
         <v>23</v>
       </c>
@@ -890,7 +890,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="8">
         <v>24</v>
       </c>
@@ -910,7 +910,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="8">
         <v>25</v>
       </c>
@@ -930,7 +930,7 @@
         <v>2.25</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="8">
         <v>26</v>
       </c>
@@ -950,7 +950,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="8">
         <v>27</v>
       </c>
@@ -970,7 +970,7 @@
         <v>1.75</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="8">
         <v>28</v>
       </c>
@@ -990,7 +990,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="8">
         <v>29</v>
       </c>
@@ -1010,7 +1010,7 @@
         <v>3.75</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="8">
         <v>30</v>
       </c>
@@ -1030,7 +1030,7 @@
         <v>2.75</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="8">
         <v>31</v>
       </c>
@@ -1050,7 +1050,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="8">
         <v>32</v>
       </c>
@@ -1070,7 +1070,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="8">
         <v>33</v>
       </c>
@@ -1090,7 +1090,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="8">
         <v>34</v>
       </c>
@@ -1110,7 +1110,7 @@
         <v>1.25</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="8">
         <v>35</v>
       </c>
@@ -1130,7 +1130,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="8">
         <v>36</v>
       </c>
@@ -1150,7 +1150,7 @@
         <v>2.75</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="8">
         <v>37</v>
       </c>
@@ -1170,7 +1170,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="8">
         <v>38</v>
       </c>
@@ -1190,7 +1190,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="8">
         <v>39</v>
       </c>
@@ -1210,7 +1210,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="8">
         <v>40</v>
       </c>
@@ -1230,7 +1230,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="8">
         <v>41</v>
       </c>
@@ -1250,7 +1250,7 @@
         <v>3.25</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="8">
         <v>42</v>
       </c>
@@ -1270,7 +1270,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="8">
         <v>43</v>
       </c>
@@ -1290,7 +1290,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="8">
         <v>44</v>
       </c>
@@ -1310,7 +1310,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="8">
         <v>45</v>
       </c>
@@ -1330,7 +1330,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="8">
         <v>46</v>
       </c>
@@ -1350,7 +1350,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="9">
         <v>47</v>
       </c>
@@ -1370,7 +1370,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="8">
         <v>48</v>
       </c>
@@ -1390,7 +1390,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="8">
         <v>49</v>
       </c>
@@ -1410,7 +1410,7 @@
         <v>2.75</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="8">
         <v>50</v>
       </c>
@@ -1430,7 +1430,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="8">
         <v>51</v>
       </c>
@@ -1450,7 +1450,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="8">
         <v>52</v>
       </c>
@@ -1470,7 +1470,7 @@
         <v>2.25</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="8">
         <v>53</v>
       </c>
@@ -1490,7 +1490,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="8">
         <v>54</v>
       </c>
@@ -1510,7 +1510,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="8">
         <v>55</v>
       </c>
@@ -1530,7 +1530,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" s="8">
         <v>56</v>
       </c>
@@ -1550,7 +1550,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="8">
         <v>57</v>
       </c>
@@ -1570,7 +1570,7 @@
         <v>2.75</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="8">
         <v>58</v>
       </c>
@@ -1590,7 +1590,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" s="8">
         <v>59</v>
       </c>
@@ -1610,7 +1610,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" s="8">
         <v>60</v>
       </c>
@@ -1630,7 +1630,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" s="8">
         <v>61</v>
       </c>
@@ -1650,7 +1650,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" s="8">
         <v>62</v>
       </c>
@@ -1670,7 +1670,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" s="8">
         <v>63</v>
       </c>
@@ -1690,7 +1690,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" s="8">
         <v>64</v>
       </c>
@@ -1710,7 +1710,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" s="8">
         <v>65</v>
       </c>
@@ -1730,7 +1730,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" s="8">
         <v>66</v>
       </c>
@@ -1750,7 +1750,7 @@
         <v>2.25</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" s="8">
         <v>67</v>
       </c>
@@ -1770,7 +1770,7 @@
         <v>2.75</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" s="8">
         <v>68</v>
       </c>
@@ -1790,7 +1790,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" s="8">
         <v>69</v>
       </c>
@@ -1810,7 +1810,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" s="8">
         <v>70</v>
       </c>
@@ -1830,7 +1830,7 @@
         <v>3.25</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" s="8">
         <v>71</v>
       </c>
@@ -1850,7 +1850,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" s="8">
         <v>72</v>
       </c>
@@ -1870,7 +1870,7 @@
         <v>2.75</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" s="8">
         <v>73</v>
       </c>
@@ -1890,7 +1890,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" s="8">
         <v>74</v>
       </c>
@@ -1910,7 +1910,7 @@
         <v>1.75</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" s="8">
         <v>75</v>
       </c>
@@ -1930,7 +1930,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" s="8">
         <v>76</v>
       </c>
@@ -1950,7 +1950,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" s="8">
         <v>77</v>
       </c>
@@ -1970,7 +1970,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" s="8">
         <v>78</v>
       </c>
@@ -1990,7 +1990,7 @@
         <v>2.75</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" s="8">
         <v>79</v>
       </c>
@@ -2010,7 +2010,7 @@
         <v>2.75</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" s="8">
         <v>80</v>
       </c>
@@ -2030,7 +2030,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" s="8">
         <v>81</v>
       </c>
@@ -2050,7 +2050,7 @@
         <v>2.75</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" s="8">
         <v>82</v>
       </c>
@@ -2070,7 +2070,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" s="8">
         <v>83</v>
       </c>
@@ -2090,7 +2090,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" s="8">
         <v>84</v>
       </c>
@@ -2110,7 +2110,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" s="8">
         <v>85</v>
       </c>
@@ -2130,7 +2130,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" s="8">
         <v>86</v>
       </c>
@@ -2150,7 +2150,7 @@
         <v>3.25</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" s="8">
         <v>87</v>
       </c>
@@ -2170,7 +2170,7 @@
         <v>2.25</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" s="8">
         <v>88</v>
       </c>
@@ -2190,7 +2190,7 @@
         <v>2.75</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" s="8">
         <v>89</v>
       </c>
@@ -2210,7 +2210,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" s="8">
         <v>90</v>
       </c>
@@ -2230,7 +2230,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" s="8">
         <v>91</v>
       </c>
@@ -2250,7 +2250,7 @@
         <v>2.25</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" s="8">
         <v>92</v>
       </c>
@@ -2270,7 +2270,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" s="8">
         <v>93</v>
       </c>
@@ -2290,7 +2290,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" s="8">
         <v>94</v>
       </c>
@@ -2310,7 +2310,7 @@
         <v>2.75</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" s="8">
         <v>95</v>
       </c>
@@ -2330,7 +2330,7 @@
         <v>3.25</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" s="8">
         <v>96</v>
       </c>
@@ -2350,7 +2350,7 @@
         <v>2.25</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98" s="8">
         <v>97</v>
       </c>
@@ -2370,7 +2370,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99" s="8">
         <v>98</v>
       </c>
@@ -2390,7 +2390,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100" s="8">
         <v>99</v>
       </c>
@@ -2410,7 +2410,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101" s="8">
         <v>100</v>
       </c>
@@ -2430,7 +2430,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102" s="8">
         <v>101</v>
       </c>
@@ -2450,7 +2450,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103" s="8">
         <v>102</v>
       </c>
@@ -2470,7 +2470,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104" s="8">
         <v>103</v>
       </c>
@@ -2490,7 +2490,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105" s="8">
         <v>104</v>
       </c>
@@ -2510,7 +2510,7 @@
         <v>2.75</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106" s="8">
         <v>105</v>
       </c>
@@ -2530,7 +2530,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107" s="8">
         <v>106</v>
       </c>
@@ -2550,7 +2550,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108" s="8">
         <v>107</v>
       </c>
@@ -2570,7 +2570,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109" s="8">
         <v>108</v>
       </c>
@@ -2590,7 +2590,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110" s="8">
         <v>109</v>
       </c>
@@ -2610,7 +2610,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111" s="8">
         <v>110</v>
       </c>
@@ -2630,7 +2630,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112" s="8">
         <v>111</v>
       </c>
@@ -2650,7 +2650,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113" s="8">
         <v>112</v>
       </c>
@@ -2670,7 +2670,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114" s="8">
         <v>113</v>
       </c>
@@ -2690,7 +2690,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115" s="8">
         <v>114</v>
       </c>
@@ -2710,7 +2710,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A116" s="8">
         <v>115</v>
       </c>
